--- a/dotnet/epplus/getnet_errors.xlsx
+++ b/dotnet/epplus/getnet_errors.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20F7742-24B4-42E0-BD19-97E360D5FC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5220947C-B27E-4D7C-84EB-3A7B1991ED3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,7 +374,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="str">
-        <f>IF(1=1,"1%","0%")</f>
+        <f>IFERROR(IF(1=1,"1%","0%"), "0%")</f>
         <v>1%</v>
       </c>
       <c r="C1" s="1"/>
@@ -415,24 +415,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>B1+0.05</f>
-        <v>6.0000000000000005E-2</v>
+        <f>B1*5</f>
+        <v>0.05</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2">
-        <f>E1+0.05</f>
-        <v>6.0000000000000005E-2</v>
+        <f>E1*5</f>
+        <v>0.05</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <f>H1+0.05</f>
-        <v>1.05</v>
+        <f>H1*5</f>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/dotnet/epplus/getnet_errors.xlsx
+++ b/dotnet/epplus/getnet_errors.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5220947C-B27E-4D7C-84EB-3A7B1991ED3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257D36E3-4179-4613-B6F6-C7E4B92EB2D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>String no resultado</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>Numerico no resultado</t>
+  </si>
+  <si>
+    <t>"-" no resultado</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>"" no resultado</t>
   </si>
 </sst>
 </file>
@@ -83,13 +92,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,9 +395,11 @@
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,8 +423,14 @@
         <f>IF(1=1,1,0)</f>
         <v>1</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -433,6 +453,27 @@
       <c r="H2" s="2">
         <f>H1*5</f>
         <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <f>SUMIF(K1:K3,"&lt;&gt;100")</f>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
